--- a/inst/extdata/glycolysisKEGG.xlsx
+++ b/inst/extdata/glycolysisKEGG.xlsx
@@ -1,12 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Documents/minval/inst/extdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="glycolysisKEGG.csv" sheetId="1" r:id="rId3"/>
+    <sheet name="glycolysisKEGG.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -229,21 +245,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -252,47 +271,312 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.57"/>
-    <col customWidth="1" min="2" max="2" width="59.86"/>
-    <col customWidth="1" min="3" max="3" width="107.0"/>
-    <col customWidth="1" min="4" max="4" width="42.29"/>
-    <col customWidth="1" min="5" max="5" width="15.0"/>
-    <col customWidth="1" min="6" max="6" width="14.57"/>
-    <col customWidth="1" min="7" max="7" width="11.29"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="59.83203125" customWidth="1"/>
+    <col min="3" max="3" width="107" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -315,7 +599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -325,20 +609,20 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="G2" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -348,20 +632,20 @@
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="1">
-        <v>-1000.0</v>
+        <v>-1000</v>
       </c>
       <c r="F3" s="1">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="G3" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -371,20 +655,20 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="G4" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -394,20 +678,20 @@
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="1">
-        <v>-1000.0</v>
+        <v>-1000</v>
       </c>
       <c r="F5" s="1">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="G5" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -417,20 +701,20 @@
       <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="1">
-        <v>-1000.0</v>
+        <v>-1000</v>
       </c>
       <c r="F6" s="1">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="G6" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -440,20 +724,20 @@
       <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="G7" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -463,20 +747,20 @@
       <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="1">
-        <v>-1000.0</v>
+        <v>-1000</v>
       </c>
       <c r="F8" s="1">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="G8" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -486,20 +770,20 @@
       <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="1">
-        <v>-7167.0</v>
+      <c r="D9" s="2">
+        <v>7176</v>
       </c>
       <c r="E9" s="1">
-        <v>-1000.0</v>
+        <v>-1000</v>
       </c>
       <c r="F9" s="1">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="G9" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -509,20 +793,20 @@
       <c r="C10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="1">
-        <v>-2821.0</v>
+      <c r="D10" s="2">
+        <v>2821</v>
       </c>
       <c r="E10" s="1">
-        <v>-1000.0</v>
+        <v>-1000</v>
       </c>
       <c r="F10" s="1">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="G10" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -532,20 +816,20 @@
       <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="G11" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -555,20 +839,20 @@
       <c r="C12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="G12" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
@@ -578,20 +862,20 @@
       <c r="C13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="G13" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
@@ -601,20 +885,20 @@
       <c r="C14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="1">
-        <v>-1000.0</v>
+        <v>-1000</v>
       </c>
       <c r="F14" s="1">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="G14" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
@@ -624,20 +908,20 @@
       <c r="C15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="G15" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
@@ -647,18 +931,18 @@
       <c r="C16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="1">
-        <v>-1000.0</v>
+        <v>-1000</v>
       </c>
       <c r="F16" s="1">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="G16" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -668,18 +952,18 @@
       <c r="C17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="1">
-        <v>-1000.0</v>
+        <v>-1000</v>
       </c>
       <c r="F17" s="1">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="G17" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
@@ -689,18 +973,18 @@
       <c r="C18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="1">
-        <v>-1000.0</v>
+        <v>-1000</v>
       </c>
       <c r="F18" s="1">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="G18" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>62</v>
       </c>
@@ -710,18 +994,18 @@
       <c r="C19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="1">
-        <v>-1000.0</v>
+        <v>-1000</v>
       </c>
       <c r="F19" s="1">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="G19" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
@@ -731,18 +1015,18 @@
       <c r="C20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="2"/>
       <c r="E20" s="1">
-        <v>-1000.0</v>
+        <v>-1000</v>
       </c>
       <c r="F20" s="1">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="G20" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>68</v>
       </c>
@@ -752,18 +1036,21 @@
       <c r="C21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="1">
-        <v>-1000.0</v>
+        <v>-1000</v>
       </c>
       <c r="F21" s="1">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="G21" s="1">
-        <v>0.0</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inst/extdata/glycolysisKEGG.xlsx
+++ b/inst/extdata/glycolysisKEGG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="glycolysisKEGG.csv" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <t>ID</t>
   </si>
@@ -164,18 +164,9 @@
     <t>( 5223 and 5224 and 441531 ) or ( 669 )</t>
   </si>
   <si>
-    <t>F00200</t>
-  </si>
-  <si>
-    <t>ATP[c] + Phosphoenolpyruvate[c] =&gt; Pyruvate[c] + ADP[c]</t>
-  </si>
-  <si>
     <t>F01786</t>
   </si>
   <si>
-    <t>alpha-D-Glucose[c] + Orthophosphate[c] =&gt; 2 alpha-D-Glucose 6-phosphate[c] + H2O[c]</t>
-  </si>
-  <si>
     <t>F01070</t>
   </si>
   <si>
@@ -240,6 +231,42 @@
   </si>
   <si>
     <t>Orthophosphate[c] &lt;=&gt; Orthophosphate[b]</t>
+  </si>
+  <si>
+    <t>B00007</t>
+  </si>
+  <si>
+    <t>Exchange Reaction of ATP</t>
+  </si>
+  <si>
+    <t>ATP[c] &lt;=&gt; ATP[b]</t>
+  </si>
+  <si>
+    <t>B00008</t>
+  </si>
+  <si>
+    <t>Exchange Reaction of ADP</t>
+  </si>
+  <si>
+    <t>ADP[c] &lt;=&gt; ADP[b]</t>
+  </si>
+  <si>
+    <t>B00009</t>
+  </si>
+  <si>
+    <t>Exchange Reaction of H2O</t>
+  </si>
+  <si>
+    <t>H2O[c] &lt;=&gt; H2O[b]</t>
+  </si>
+  <si>
+    <t>alpha-D-Glucose[c] + Orthophosphate[c] =&gt; 4 alpha-D-Glucose 6-phosphate[c] + H2O[c]</t>
+  </si>
+  <si>
+    <t>F01015</t>
+  </si>
+  <si>
+    <t>D-Glyceraldehyde 3-phosphate[c] &lt;=&gt; 2 Glycerone phosphate[c]</t>
   </si>
 </sst>
 </file>
@@ -257,12 +284,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -277,11 +310,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D22"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -601,19 +637,17 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F2" s="1">
         <v>1000</v>
@@ -624,17 +658,15 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="1">
         <v>-1000</v>
       </c>
@@ -647,19 +679,17 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F4" s="1">
         <v>1000</v>
@@ -669,41 +699,37 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1">
-        <v>-1000</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="A5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="1">
         <v>-1000</v>
       </c>
@@ -715,41 +741,37 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="A7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4">
+        <v>-1000</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="1">
         <v>-1000</v>
       </c>
@@ -762,17 +784,15 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="2">
-        <v>7176</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="1">
         <v>-1000</v>
       </c>
@@ -785,17 +805,15 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2821</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="1">
         <v>-1000</v>
       </c>
@@ -808,130 +826,132 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>-1000</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1000</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="1">
-        <v>-1000</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2821</v>
+      </c>
       <c r="E16" s="1">
         <v>-1000</v>
       </c>
@@ -942,17 +962,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E17" s="1">
         <v>-1000</v>
       </c>
@@ -965,17 +987,19 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E18" s="1">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>1000</v>
@@ -986,15 +1010,17 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E19" s="1">
         <v>-1000</v>
       </c>
@@ -1007,15 +1033,17 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E20" s="1">
         <v>-1000</v>
       </c>
@@ -1028,15 +1056,17 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="D21" s="2">
+        <v>7176</v>
+      </c>
       <c r="E21" s="1">
         <v>-1000</v>
       </c>
@@ -1048,9 +1078,78 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D22" s="3"/>
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G24">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inst/extdata/glycolysisKEGG.xlsx
+++ b/inst/extdata/glycolysisKEGG.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -164,21 +164,6 @@
     <t>( 5223 and 5224 and 441531 ) or ( 669 )</t>
   </si>
   <si>
-    <t>F01786</t>
-  </si>
-  <si>
-    <t>F01070</t>
-  </si>
-  <si>
-    <t>2 2 beta-D-Fructose 1,6-bisphosphate[c] &lt;=&gt; Glycerone phosphate[c] + D-Glyceraldehyde 3-phosphate[c]</t>
-  </si>
-  <si>
-    <t>F01061</t>
-  </si>
-  <si>
-    <t>D-Glyceraldehyde 3-phosphate[c] + 5-&gt;Orthophosphate[c] + NAD+[c] =&gt; 3-Phospho-D-glyceroyl phosphate[c] + NADH[c] + H+[c]</t>
-  </si>
-  <si>
     <t>B00001</t>
   </si>
   <si>
@@ -258,15 +243,6 @@
   </si>
   <si>
     <t>H2O[c] &lt;=&gt; H2O[b]</t>
-  </si>
-  <si>
-    <t>alpha-D-Glucose[c] + Orthophosphate[c] =&gt; 4 alpha-D-Glucose 6-phosphate[c] + H2O[c]</t>
-  </si>
-  <si>
-    <t>F01015</t>
-  </si>
-  <si>
-    <t>D-Glyceraldehyde 3-phosphate[c] &lt;=&gt; 2 Glycerone phosphate[c]</t>
   </si>
 </sst>
 </file>
@@ -284,18 +260,12 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -310,14 +280,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,21 +563,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="59.83203125" customWidth="1"/>
-    <col min="3" max="3" width="107" customWidth="1"/>
-    <col min="4" max="4" width="42.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="59.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="107" style="2" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="14.5" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -637,15 +606,15 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="1">
         <v>-1000</v>
       </c>
@@ -658,15 +627,15 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="1">
         <v>-1000</v>
       </c>
@@ -679,99 +648,99 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1">
-        <v>-1000</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4">
+      <c r="D5" s="3"/>
+      <c r="E5" s="1">
         <v>-1</v>
       </c>
-      <c r="F5" s="4">
-        <v>1000</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="F5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1">
-        <v>-1000</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4">
-        <v>-1000</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1000</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="D7" s="3"/>
+      <c r="E7" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="1">
         <v>-1000</v>
       </c>
@@ -784,15 +753,15 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="1">
         <v>-1000</v>
       </c>
@@ -805,15 +774,15 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="1">
         <v>-1000</v>
       </c>
@@ -826,131 +795,131 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2821</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="1">
-        <v>-1000</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="E13" s="1">
+        <v>-1000</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1000</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>-1000</v>
-      </c>
-      <c r="F13">
-        <v>1000</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1000</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F15" s="1">
         <v>1000</v>
       </c>
       <c r="G15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2821</v>
+        <v>33</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E16" s="1">
         <v>-1000</v>
@@ -962,18 +931,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="D17" s="3">
+        <v>7176</v>
       </c>
       <c r="E17" s="1">
         <v>-1000</v>
@@ -987,16 +956,16 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -1010,16 +979,16 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E19" s="1">
         <v>-1000</v>
@@ -1033,116 +1002,24 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="E20" s="1">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>1000</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="2">
-        <v>7176</v>
-      </c>
-      <c r="E21" s="1">
-        <v>-1000</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="1">
-        <v>-1000</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G24" s="1">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/glycolysisKEGG.xlsx
+++ b/inst/extdata/glycolysisKEGG.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -150,99 +150,6 @@
   </si>
   <si>
     <t>2-Phospho-D-glycerate[c] &lt;=&gt; Phosphoenolpyruvate[c] + H2O[c]</t>
-  </si>
-  <si>
-    <t>R00200</t>
-  </si>
-  <si>
-    <t>ATP:pyruvate 2-O-phosphotransferase</t>
-  </si>
-  <si>
-    <t>ADP[c] + Phosphoenolpyruvate[c] =&gt; Pyruvate[c] + ATP[c]</t>
-  </si>
-  <si>
-    <t>( 5223 and 5224 and 441531 ) or ( 669 )</t>
-  </si>
-  <si>
-    <t>B00001</t>
-  </si>
-  <si>
-    <t>Exchange Reaction of NADH</t>
-  </si>
-  <si>
-    <t>NADH[c] &lt;=&gt; NADH[b]</t>
-  </si>
-  <si>
-    <t>B00002</t>
-  </si>
-  <si>
-    <t>Exchange Reaction of H+</t>
-  </si>
-  <si>
-    <t>H+[c] &lt;=&gt; H+[b]</t>
-  </si>
-  <si>
-    <t>B00003</t>
-  </si>
-  <si>
-    <t>Exchange Reaction of Pyruvate</t>
-  </si>
-  <si>
-    <t>Pyruvate[c] &lt;=&gt; Pyruvate[b]</t>
-  </si>
-  <si>
-    <t>B00004</t>
-  </si>
-  <si>
-    <t>Exchange Reaction of alpha-D-Glucose</t>
-  </si>
-  <si>
-    <t>alpha-D-Glucose[c] &lt;=&gt; alpha-D-Glucose[b]</t>
-  </si>
-  <si>
-    <t>B00005</t>
-  </si>
-  <si>
-    <t>Exchange Reaction of NAD+</t>
-  </si>
-  <si>
-    <t>NAD+[c] &lt;=&gt; NAD+[b]</t>
-  </si>
-  <si>
-    <t>B00006</t>
-  </si>
-  <si>
-    <t>Exchange Reaction of Orthophosphate</t>
-  </si>
-  <si>
-    <t>Orthophosphate[c] &lt;=&gt; Orthophosphate[b]</t>
-  </si>
-  <si>
-    <t>B00007</t>
-  </si>
-  <si>
-    <t>Exchange Reaction of ATP</t>
-  </si>
-  <si>
-    <t>ATP[c] &lt;=&gt; ATP[b]</t>
-  </si>
-  <si>
-    <t>B00008</t>
-  </si>
-  <si>
-    <t>Exchange Reaction of ADP</t>
-  </si>
-  <si>
-    <t>ADP[c] &lt;=&gt; ADP[b]</t>
-  </si>
-  <si>
-    <t>B00009</t>
-  </si>
-  <si>
-    <t>Exchange Reaction of H2O</t>
-  </si>
-  <si>
-    <t>H2O[c] &lt;=&gt; H2O[b]</t>
   </si>
 </sst>
 </file>
@@ -280,12 +187,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -606,15 +512,17 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2821</v>
+      </c>
       <c r="E2" s="1">
         <v>-1000</v>
       </c>
@@ -627,15 +535,17 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E3" s="1">
         <v>-1000</v>
       </c>
@@ -648,17 +558,19 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E4" s="1">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>1000</v>
@@ -669,17 +581,19 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" s="1">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="F5" s="1">
         <v>1000</v>
@@ -690,15 +604,17 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E6" s="1">
         <v>-1000</v>
       </c>
@@ -711,15 +627,17 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7176</v>
+      </c>
       <c r="E7" s="1">
         <v>-1000</v>
       </c>
@@ -732,17 +650,19 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E8" s="1">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>1000</v>
@@ -753,15 +673,17 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="E9" s="1">
         <v>-1000</v>
       </c>
@@ -774,252 +696,24 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E10" s="1">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>1000</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2821</v>
-      </c>
-      <c r="E12" s="1">
-        <v>-1000</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="1">
-        <v>-1000</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="1">
-        <v>-1000</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="1">
-        <v>-1000</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="3">
-        <v>7176</v>
-      </c>
-      <c r="E17" s="1">
-        <v>-1000</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="1">
-        <v>-1000</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G20" s="1">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/glycolysisKEGG.xlsx
+++ b/inst/extdata/glycolysisKEGG.xlsx
@@ -68,9 +68,6 @@
     <t>alpha-D-Glucose 6-phosphate ketol-isomerase</t>
   </si>
   <si>
-    <t>alpha-D-Glucose 6-phosphate[c] &lt;=&gt; beta-D-Fructose 6-phosphate[c]</t>
-  </si>
-  <si>
     <t>( 3101 and 3098 and 3099 and 80201 ) or ( 2645 )</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>D-glyceraldehyde-3-phosphate aldose-ketose-isomerase</t>
   </si>
   <si>
-    <t>D-Glyceraldehyde 3-phosphate[c] &lt;=&gt; Glycerone phosphate[c]</t>
-  </si>
-  <si>
     <t>( 5232 and 5230 )</t>
   </si>
   <si>
@@ -140,9 +134,6 @@
     <t>D-phosphoglycerate 2,3-phosphomutase</t>
   </si>
   <si>
-    <t>2-Phospho-D-glycerate[c] &lt;=&gt; 3-Phospho-D-glycerate[c]</t>
-  </si>
-  <si>
     <t>R00658</t>
   </si>
   <si>
@@ -150,6 +141,15 @@
   </si>
   <si>
     <t>2-Phospho-D-glycerate[c] &lt;=&gt; Phosphoenolpyruvate[c] + H2O[c]</t>
+  </si>
+  <si>
+    <t>2-Phospho-D-glycerate[c] &lt;--&gt; 3-Phospho-D-glycerate[c]</t>
+  </si>
+  <si>
+    <t>alpha-D-Glucose 6-phosphate[c] &lt;=&gt; 5 beta-D-Fructose 6-phosphate[c]</t>
+  </si>
+  <si>
+    <t>D-Glyceraldehyde 3-phosphate[c] &lt;=&gt; 3 3 Glycerone phosphate[c]</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -512,13 +512,13 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3">
         <v>2821</v>
@@ -535,16 +535,16 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E3" s="1">
         <v>-1000</v>
@@ -558,16 +558,16 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -581,16 +581,16 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="E5" s="1">
         <v>-1000</v>
@@ -604,16 +604,16 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E6" s="1">
         <v>-1000</v>
@@ -627,13 +627,13 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3">
         <v>7176</v>
@@ -679,10 +679,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="E9" s="1">
         <v>-1000</v>
@@ -696,16 +696,16 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>

--- a/inst/extdata/glycolysisKEGG.xlsx
+++ b/inst/extdata/glycolysisKEGG.xlsx
@@ -122,9 +122,6 @@
     <t>ATP:3-phospho-D-glycerate 1-phosphotransferase</t>
   </si>
   <si>
-    <t>ATP[c] + 3-Phospho-D-glycerate[c] &lt;=&gt; ADP[c] + 3-Phospho-D-glyceroyl phosphate[c]</t>
-  </si>
-  <si>
     <t>( 2027 and 2026 and 2023 )</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>D-Glyceraldehyde 3-phosphate[c] &lt;=&gt; 3 3 Glycerone phosphate[c]</t>
+  </si>
+  <si>
+    <t>ATP[c] + 3-Phospho-D-glycerate[c] =&gt; ADP[c] + 3-Phospho-D-glyceroyl phosphate[c]</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -512,13 +512,13 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D2" s="3">
         <v>2821</v>
@@ -541,7 +541,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>24</v>
@@ -610,10 +610,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="E6" s="1">
         <v>-1000</v>
@@ -627,13 +627,13 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3">
         <v>7176</v>
@@ -679,7 +679,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>13</v>

--- a/inst/extdata/glycolysisKEGG.xlsx
+++ b/inst/extdata/glycolysisKEGG.xlsx
@@ -472,7 +472,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -530,7 +530,7 @@
         <v>1000</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/inst/extdata/glycolysisKEGG.xlsx
+++ b/inst/extdata/glycolysisKEGG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="21600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="glycolysisKEGG.csv" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
     <t>D-Glyceraldehyde 3-phosphate[c] &lt;=&gt; 3 3 Glycerone phosphate[c]</t>
   </si>
   <si>
-    <t>ATP[c] + 3-Phospho-D-glycerate[c] =&gt; ADP[c] + 3-Phospho-D-glyceroyl phosphate[c]</t>
+    <t>ATP[c] + 3-Phospho-D-glycerate[c] &lt;=&gt; ADP[c] + 3-Phospho-D-glyceroyl phosphate[c]</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/inst/extdata/glycolysisKEGG.xlsx
+++ b/inst/extdata/glycolysisKEGG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="21600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="glycolysisKEGG.csv" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>ATP:alpha-D-glucose 6-phosphotransferase</t>
   </si>
   <si>
-    <t>alpha-D-Glucose[c] + Orthophosphate[c] =&gt; alpha-D-Glucose 6-phosphate[c] + H2O[c]</t>
-  </si>
-  <si>
     <t>( 2597 ) or ( 26330 )</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>ATP[c] + 3-Phospho-D-glycerate[c] &lt;=&gt; ADP[c] + 3-Phospho-D-glyceroyl phosphate[c]</t>
+  </si>
+  <si>
+    <t>ATP[c] + alpha-D-Glucose[c] &lt;=&gt; ADP[c] + alpha-D-Glucose 6-phosphate[c]</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1048576"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -512,13 +512,13 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D2" s="3">
         <v>2821</v>
@@ -535,16 +535,16 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="E3" s="1">
         <v>-1000</v>
@@ -558,16 +558,16 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -581,16 +581,16 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="E5" s="1">
         <v>-1000</v>
@@ -604,16 +604,16 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="E6" s="1">
         <v>-1000</v>
@@ -627,13 +627,13 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="3">
         <v>7176</v>
@@ -656,10 +656,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -673,16 +673,16 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E9" s="1">
         <v>-1000</v>
@@ -696,16 +696,16 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>

--- a/inst/extdata/glycolysisKEGG.xlsx
+++ b/inst/extdata/glycolysisKEGG.xlsx
@@ -149,7 +149,7 @@
     <t>ATP[c] + 3-Phospho-D-glycerate[c] &lt;=&gt; ADP[c] + 3-Phospho-D-glyceroyl phosphate[c]</t>
   </si>
   <si>
-    <t>ATP[c] + alpha-D-Glucose[c] &lt;=&gt; ADP[c] + alpha-D-Glucose 6-phosphate[c]</t>
+    <t>ATP[c] + alpha-D-Glucose[c] =&gt; ADP[c] + alpha-D-Glucose 6-phosphate[c]</t>
   </si>
 </sst>
 </file>

--- a/inst/extdata/glycolysisKEGG.xlsx
+++ b/inst/extdata/glycolysisKEGG.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>ATP[c] + alpha-D-Glucose[c] =&gt; ADP[c] + alpha-D-Glucose 6-phosphate[c]</t>
+  </si>
+  <si>
+    <t>ADP[c] + Phosphoenolpyruvate[c] =&gt; ATP[c] + Pyruvate[c]</t>
+  </si>
+  <si>
+    <t>ATP:pyruvate 2-O-phosphotransferase</t>
+  </si>
+  <si>
+    <t>R00200</t>
   </si>
 </sst>
 </file>
@@ -187,11 +196,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -530,7 +542,7 @@
         <v>1000</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -717,9 +729,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:G24">
-    <sortCondition ref="A2"/>
+  <sortState ref="A2:G11">
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
